--- a/Char_stats.xlsx
+++ b/Char_stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Милосердный</t>
   </si>
@@ -568,7 +568,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,10 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -652,7 +655,10 @@
         <f>-1</f>
         <v>-1</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13">
+        <f>-1</f>
+        <v>-1</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -670,7 +676,9 @@
       <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -692,7 +700,9 @@
       <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -713,7 +723,9 @@
       <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
